--- a/dist/files/xls/list-titulnyy-obrazca.xlsx
+++ b/dist/files/xls/list-titulnyy-obrazca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\1SDR\global_arch\КТБ\СОТРУДНИКИ\Шишенко\500СТП к наполнению\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sshishenko\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="ТИТУЛЬНЫЙ ЛИСТ ОБРАЗЦА" sheetId="11" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>РАЗРАБОТАЛ</t>
   </si>
@@ -50,9 +50,6 @@
     <t>20___</t>
   </si>
   <si>
-    <t>исполнитель дизайн-проекта</t>
-  </si>
-  <si>
     <t>ведущий архитектор проекта</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>ДАТА:</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
     <t>www.Sofia-Decor.ru</t>
   </si>
   <si>
@@ -108,6 +102,24 @@
   </si>
   <si>
     <t>НОМЕР ОБРАЗЦА:</t>
+  </si>
+  <si>
+    <t>№ ОБРАЗЦА</t>
+  </si>
+  <si>
+    <t>массив</t>
+  </si>
+  <si>
+    <t>шпон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">исполнитель дизайн-проекта </t>
+  </si>
+  <si>
+    <t>ПОЛИРОВКА (есть/нет)</t>
+  </si>
+  <si>
+    <t>3.0</t>
   </si>
 </sst>
 </file>
@@ -117,7 +129,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -237,6 +249,25 @@
       <name val="Segoe Print"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ISOCPEUR"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -246,7 +277,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -334,12 +365,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -357,9 +403,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -378,32 +421,69 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -413,31 +493,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -473,8 +550,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>431557</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>44503</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -775,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13:Q13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28:N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -791,26 +868,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="16"/>
+      <c r="A1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
@@ -819,53 +896,53 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="21"/>
+      <c r="G2" s="20"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="36">
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="48">
         <f ca="1">TODAY()</f>
-        <v>43489</v>
-      </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="29"/>
+        <v>43598</v>
+      </c>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="26"/>
     </row>
     <row r="3" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="21"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="28"/>
-    </row>
-    <row r="4" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="25"/>
+    </row>
+    <row r="4" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -877,14 +954,22 @@
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
+      <c r="L4" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="46"/>
+      <c r="N4" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="45"/>
       <c r="T4" s="4"/>
     </row>
     <row r="5" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
@@ -899,22 +984,22 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
       <c r="T5" s="4"/>
     </row>
     <row r="6" spans="1:20" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
+      <c r="A6" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -923,22 +1008,22 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
       <c r="T6" s="4"/>
     </row>
     <row r="7" spans="1:20" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
+      <c r="A7" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -947,22 +1032,22 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
       <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:20" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
+      <c r="A8" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -971,33 +1056,31 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
       <c r="T8" s="4"/>
     </row>
-    <row r="9" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -1010,18 +1093,20 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="26"/>
+      <c r="E10" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="23"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
@@ -1032,18 +1117,18 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="26"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="23"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
@@ -1054,18 +1139,18 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="26"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="23"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
@@ -1077,20 +1162,20 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
+      <c r="F13" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="4"/>
@@ -1101,20 +1186,20 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
+      <c r="F14" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="4"/>
@@ -1125,20 +1210,20 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
+      <c r="F15" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="4"/>
@@ -1149,20 +1234,20 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
+      <c r="F16" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="4"/>
@@ -1173,20 +1258,20 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
+      <c r="F17" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="4"/>
@@ -1197,20 +1282,20 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
+      <c r="F18" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="53"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="4"/>
@@ -1221,20 +1306,20 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
+      <c r="F19" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="4"/>
@@ -1245,20 +1330,20 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
+      <c r="F20" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="4"/>
@@ -1269,32 +1354,32 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="4"/>
     </row>
-    <row r="22" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+    <row r="22" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="31"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -1311,10 +1396,10 @@
     </row>
     <row r="23" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -1333,10 +1418,10 @@
     </row>
     <row r="24" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -1355,10 +1440,10 @@
     </row>
     <row r="25" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -1377,10 +1462,10 @@
     </row>
     <row r="26" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -1398,18 +1483,18 @@
       <c r="T26" s="4"/>
     </row>
     <row r="27" spans="1:20" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="40" t="s">
+      <c r="G27" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -1421,39 +1506,39 @@
       <c r="S27" s="7"/>
       <c r="T27" s="4"/>
     </row>
-    <row r="28" spans="1:20" s="24" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="46" t="s">
+    <row r="28" spans="1:20" s="22" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="32"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="48" t="s">
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="22" t="s">
+      <c r="P28" s="59"/>
+      <c r="Q28" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="R28" s="22" t="s">
+      <c r="R28" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="S28" s="17" t="s">
+      <c r="S28" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T28" s="23"/>
+      <c r="T28" s="21"/>
     </row>
     <row r="29" spans="1:20" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
@@ -1472,8 +1557,8 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
       <c r="S29" s="7"/>
       <c r="T29" s="4"/>
     </row>
@@ -1484,90 +1569,90 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="40" t="s">
+      <c r="G30" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
       <c r="S30" s="7"/>
       <c r="T30" s="4"/>
     </row>
-    <row r="31" spans="1:20" s="24" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="45" t="s">
+    <row r="31" spans="1:20" s="22" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="R31" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="S31" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="T31" s="21"/>
+    </row>
+    <row r="32" spans="1:20" s="22" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="46" t="s">
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="48" t="s">
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="22" t="s">
+      <c r="P32" s="59"/>
+      <c r="Q32" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="R31" s="22" t="s">
+      <c r="R32" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="S31" s="17" t="s">
+      <c r="S32" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T31" s="23"/>
-    </row>
-    <row r="32" spans="1:20" s="24" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="R32" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="S32" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="T32" s="23"/>
+      <c r="T32" s="21"/>
     </row>
     <row r="33" spans="1:20" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
@@ -1586,8 +1671,8 @@
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
       <c r="S33" s="7"/>
       <c r="T33" s="4"/>
     </row>
@@ -1598,56 +1683,56 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="40" t="s">
+      <c r="G34" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
       <c r="S34" s="7"/>
       <c r="T34" s="4"/>
     </row>
-    <row r="35" spans="1:20" s="24" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="46" t="s">
+    <row r="35" spans="1:20" s="22" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="46"/>
-      <c r="O35" s="48" t="s">
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="P35" s="48"/>
-      <c r="Q35" s="22" t="s">
+      <c r="P35" s="59"/>
+      <c r="Q35" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="R35" s="22" t="s">
+      <c r="R35" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="S35" s="17" t="s">
+      <c r="S35" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="T35" s="23"/>
+      <c r="T35" s="21"/>
     </row>
     <row r="36" spans="1:20" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
@@ -1672,13 +1757,12 @@
       <c r="T36" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="75">
     <mergeCell ref="A35:J35"/>
     <mergeCell ref="K35:N35"/>
     <mergeCell ref="J20:Q20"/>
     <mergeCell ref="G27:J27"/>
     <mergeCell ref="J19:Q19"/>
-    <mergeCell ref="A28:J28"/>
     <mergeCell ref="K28:N28"/>
     <mergeCell ref="O28:P28"/>
     <mergeCell ref="G30:J30"/>
@@ -1704,18 +1788,51 @@
     <mergeCell ref="F16:I16"/>
     <mergeCell ref="F17:I17"/>
     <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F21:I21"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="M3:N3"/>
-    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="E9:N12"/>
+    <mergeCell ref="E10:N12"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="J21:Q21"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.86614173228346458" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
